--- a/3rd Year Software Engineering TEMPLATE.xlsx
+++ b/3rd Year Software Engineering TEMPLATE.xlsx
@@ -1220,7 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1626,6 +1626,18 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1635,15 +1647,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1671,6 +1674,45 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1680,42 +1722,21 @@
     <xf numFmtId="166" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1723,36 +1744,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1760,7 +1751,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -1900,13 +1891,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1931,8 +1915,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2270,7 +2254,7 @@
   <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,21 +2275,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="H1" s="146" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="H1" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="149" t="s">
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="150" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2340,7 +2324,7 @@
       <c r="K2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="150"/>
+      <c r="L2" s="151"/>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
@@ -2376,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="37" t="str">
-        <f>IF(J3="","",IF(AND(90%&lt;=J3),4,IF(AND(85%&lt;=J3,J3&lt;90%),3.9,IF(AND(80%&lt;=J3,J3&lt;85%),3.7,IF(AND(77%&lt;=J3,J3&lt;80%),3.3,IF(AND(73%&lt;=J3,J3&lt;77%),3,IF(AND(70%&lt;=J3,J3&lt;73%),2.7,IF(AND(67%&lt;=J3,J3&lt;70%),2.3,IF(AND(63%&lt;=J3,J3&lt;67%),2,IF(AND(60%&lt;=J3,J3&lt;63%),1.7,"F"))))))))))</f>
+        <f t="shared" ref="K3:K13" si="1">IF(J3="","",IF(AND(90%&lt;=J3),4,IF(AND(85%&lt;=J3,J3&lt;90%),3.9,IF(AND(80%&lt;=J3,J3&lt;85%),3.7,IF(AND(77%&lt;=J3,J3&lt;80%),3.3,IF(AND(73%&lt;=J3,J3&lt;77%),3,IF(AND(70%&lt;=J3,J3&lt;73%),2.7,IF(AND(67%&lt;=J3,J3&lt;70%),2.3,IF(AND(63%&lt;=J3,J3&lt;67%),2,IF(AND(60%&lt;=J3,J3&lt;63%),1.7,"F"))))))))))</f>
         <v>F</v>
       </c>
       <c r="L3" s="75">
@@ -2410,7 +2394,7 @@
         <v>Database Management Systems (SE 3309A)</v>
       </c>
       <c r="I4" s="130">
-        <f t="shared" ref="I4:I13" si="1">IF(J4="",0,0.5)</f>
+        <f t="shared" ref="I4:I13" si="2">IF(J4="",0,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="J4" s="45">
@@ -2418,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="37" t="str">
-        <f>IF(J4="","",IF(AND(90%&lt;=J4),4,IF(AND(85%&lt;=J4,J4&lt;90%),3.9,IF(AND(80%&lt;=J4,J4&lt;85%),3.7,IF(AND(77%&lt;=J4,J4&lt;80%),3.3,IF(AND(73%&lt;=J4,J4&lt;77%),3,IF(AND(70%&lt;=J4,J4&lt;73%),2.7,IF(AND(67%&lt;=J4,J4&lt;70%),2.3,IF(AND(63%&lt;=J4,J4&lt;67%),2,IF(AND(60%&lt;=J4,J4&lt;63%),1.7,"F"))))))))))</f>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="L4" s="75">
@@ -2434,7 +2418,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="104">
-        <f t="shared" ref="C5:C6" si="2">IF(A5="YES",5%,"")</f>
+        <f t="shared" ref="C5:C6" si="3">IF(A5="YES",5%,"")</f>
         <v>0.05</v>
       </c>
       <c r="D5" s="97">
@@ -2452,7 +2436,7 @@
         <v>Operational Systems (SE 3313A)</v>
       </c>
       <c r="I5" s="130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J5" s="45">
@@ -2460,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="37" t="str">
-        <f>IF(J5="","",IF(AND(90%&lt;=J5),4,IF(AND(85%&lt;=J5,J5&lt;90%),3.9,IF(AND(80%&lt;=J5,J5&lt;85%),3.7,IF(AND(77%&lt;=J5,J5&lt;80%),3.3,IF(AND(73%&lt;=J5,J5&lt;77%),3,IF(AND(70%&lt;=J5,J5&lt;73%),2.7,IF(AND(67%&lt;=J5,J5&lt;70%),2.3,IF(AND(63%&lt;=J5,J5&lt;67%),2,IF(AND(60%&lt;=J5,J5&lt;63%),1.7,"F"))))))))))</f>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="L5" s="75">
@@ -2476,7 +2460,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="D6" s="97">
@@ -2494,7 +2478,7 @@
         <v>Web Technologies (SE 3316A)</v>
       </c>
       <c r="I6" s="130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J6" s="45">
@@ -2502,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="37" t="str">
-        <f>IF(J6="","",IF(AND(90%&lt;=J6),4,IF(AND(85%&lt;=J6,J6&lt;90%),3.9,IF(AND(80%&lt;=J6,J6&lt;85%),3.7,IF(AND(77%&lt;=J6,J6&lt;80%),3.3,IF(AND(73%&lt;=J6,J6&lt;77%),3,IF(AND(70%&lt;=J6,J6&lt;73%),2.7,IF(AND(67%&lt;=J6,J6&lt;70%),2.3,IF(AND(63%&lt;=J6,J6&lt;67%),2,IF(AND(60%&lt;=J6,J6&lt;63%),1.7,"F"))))))))))</f>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="L6" s="75">
@@ -2536,7 +2520,7 @@
         <v>Software Requirements &amp; Analysis (SE 3352A)</v>
       </c>
       <c r="I7" s="130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J7" s="45">
@@ -2544,7 +2528,7 @@
         <v>0.05</v>
       </c>
       <c r="K7" s="37" t="str">
-        <f>IF(J7="","",IF(AND(90%&lt;=J7),4,IF(AND(85%&lt;=J7,J7&lt;90%),3.9,IF(AND(80%&lt;=J7,J7&lt;85%),3.7,IF(AND(77%&lt;=J7,J7&lt;80%),3.3,IF(AND(73%&lt;=J7,J7&lt;77%),3,IF(AND(70%&lt;=J7,J7&lt;73%),2.7,IF(AND(67%&lt;=J7,J7&lt;70%),2.3,IF(AND(63%&lt;=J7,J7&lt;67%),2,IF(AND(60%&lt;=J7,J7&lt;63%),1.7,"F"))))))))))</f>
+        <f t="shared" si="1"/>
         <v>F</v>
       </c>
       <c r="L7" s="75">
@@ -2579,7 +2563,7 @@
         <v>Microprocessors &amp; Microcomputers (ECE 3375B)</v>
       </c>
       <c r="I8" s="134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8" s="47" t="str">
@@ -2587,7 +2571,7 @@
         <v/>
       </c>
       <c r="K8" s="37" t="str">
-        <f>IF(J8="","",IF(AND(90%&lt;=J8),4,IF(AND(85%&lt;=J8,J8&lt;90%),3.9,IF(AND(80%&lt;=J8,J8&lt;85%),3.7,IF(AND(77%&lt;=J8,J8&lt;80%),3.3,IF(AND(73%&lt;=J8,J8&lt;77%),3,IF(AND(70%&lt;=J8,J8&lt;73%),2.7,IF(AND(67%&lt;=J8,J8&lt;70%),2.3,IF(AND(63%&lt;=J8,J8&lt;67%),2,IF(AND(60%&lt;=J8,J8&lt;63%),1.7,"F"))))))))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L8" s="75" t="str">
@@ -2609,7 +2593,7 @@
         <v/>
       </c>
       <c r="K9" s="37" t="str">
-        <f>IF(J9="","",IF(AND(90%&lt;=J9),4,IF(AND(85%&lt;=J9,J9&lt;90%),3.9,IF(AND(80%&lt;=J9,J9&lt;85%),3.7,IF(AND(77%&lt;=J9,J9&lt;80%),3.3,IF(AND(73%&lt;=J9,J9&lt;77%),3,IF(AND(70%&lt;=J9,J9&lt;73%),2.7,IF(AND(67%&lt;=J9,J9&lt;70%),2.3,IF(AND(63%&lt;=J9,J9&lt;67%),2,IF(AND(60%&lt;=J9,J9&lt;63%),1.7,"F"))))))))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L9" s="75" t="str">
@@ -2618,20 +2602,20 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="149"/>
       <c r="H10" s="11" t="str">
         <f>H39</f>
         <v>Computer Networks Applications (SE 3314B)</v>
       </c>
       <c r="I10" s="130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J10" s="45" t="str">
@@ -2639,7 +2623,7 @@
         <v/>
       </c>
       <c r="K10" s="37" t="str">
-        <f>IF(J10="","",IF(AND(90%&lt;=J10),4,IF(AND(85%&lt;=J10,J10&lt;90%),3.9,IF(AND(80%&lt;=J10,J10&lt;85%),3.7,IF(AND(77%&lt;=J10,J10&lt;80%),3.3,IF(AND(73%&lt;=J10,J10&lt;77%),3,IF(AND(70%&lt;=J10,J10&lt;73%),2.7,IF(AND(67%&lt;=J10,J10&lt;70%),2.3,IF(AND(63%&lt;=J10,J10&lt;67%),2,IF(AND(60%&lt;=J10,J10&lt;63%),1.7,"F"))))))))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L10" s="75" t="str">
@@ -2671,7 +2655,7 @@
         <v>Software Engineering Design I (SE 3350B)</v>
       </c>
       <c r="I11" s="130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11" s="45" t="str">
@@ -2679,7 +2663,7 @@
         <v/>
       </c>
       <c r="K11" s="37" t="str">
-        <f>IF(J11="","",IF(AND(90%&lt;=J11),4,IF(AND(85%&lt;=J11,J11&lt;90%),3.9,IF(AND(80%&lt;=J11,J11&lt;85%),3.7,IF(AND(77%&lt;=J11,J11&lt;80%),3.3,IF(AND(73%&lt;=J11,J11&lt;77%),3,IF(AND(70%&lt;=J11,J11&lt;73%),2.7,IF(AND(67%&lt;=J11,J11&lt;70%),2.3,IF(AND(63%&lt;=J11,J11&lt;67%),2,IF(AND(60%&lt;=J11,J11&lt;63%),1.7,"F"))))))))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L11" s="75" t="str">
@@ -2705,7 +2689,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="14">
-        <f t="shared" ref="F12" si="3">IF(A12="YES",D12/E12,"")</f>
+        <f t="shared" ref="F12" si="4">IF(A12="YES",D12/E12,"")</f>
         <v>0</v>
       </c>
       <c r="H12" s="11" t="str">
@@ -2713,7 +2697,7 @@
         <v>Software Project &amp; Process Management (SE 3351B)</v>
       </c>
       <c r="I12" s="130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="45" t="str">
@@ -2721,7 +2705,7 @@
         <v/>
       </c>
       <c r="K12" s="37" t="str">
-        <f>IF(J12="","",IF(AND(90%&lt;=J12),4,IF(AND(85%&lt;=J12,J12&lt;90%),3.9,IF(AND(80%&lt;=J12,J12&lt;85%),3.7,IF(AND(77%&lt;=J12,J12&lt;80%),3.3,IF(AND(73%&lt;=J12,J12&lt;77%),3,IF(AND(70%&lt;=J12,J12&lt;73%),2.7,IF(AND(67%&lt;=J12,J12&lt;70%),2.3,IF(AND(63%&lt;=J12,J12&lt;67%),2,IF(AND(60%&lt;=J12,J12&lt;63%),1.7,"F"))))))))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L12" s="75" t="str">
@@ -2755,7 +2739,7 @@
         <v>Human-Computer Interface Design (SE 3353B)</v>
       </c>
       <c r="I13" s="131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13" s="124" t="str">
@@ -2763,7 +2747,7 @@
         <v/>
       </c>
       <c r="K13" s="38" t="str">
-        <f>IF(J13="","",IF(AND(90%&lt;=J13),4,IF(AND(85%&lt;=J13,J13&lt;90%),3.9,IF(AND(80%&lt;=J13,J13&lt;85%),3.7,IF(AND(77%&lt;=J13,J13&lt;80%),3.3,IF(AND(73%&lt;=J13,J13&lt;77%),3,IF(AND(70%&lt;=J13,J13&lt;73%),2.7,IF(AND(67%&lt;=J13,J13&lt;70%),2.3,IF(AND(63%&lt;=J13,J13&lt;67%),2,IF(AND(60%&lt;=J13,J13&lt;63%),1.7,"F"))))))))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L13" s="76" t="str">
@@ -2796,14 +2780,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="153"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="154"/>
       <c r="H15" s="127"/>
       <c r="I15" s="128"/>
       <c r="J15" s="34" t="s">
@@ -2835,10 +2819,10 @@
       <c r="F16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="161" t="s">
+      <c r="H16" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="162"/>
+      <c r="I16" s="158"/>
       <c r="J16" s="40">
         <f>SUMPRODUCT(I3:I7,J3:J7)/SUM(I3:I7)</f>
         <v>0.01</v>
@@ -2873,10 +2857,10 @@
         <f>IF(A17="YES",(D17/E17)*C17,"")</f>
         <v>0</v>
       </c>
-      <c r="H17" s="163" t="s">
+      <c r="H17" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="164"/>
+      <c r="I17" s="156"/>
       <c r="J17" s="39" t="str">
         <f>IFERROR(SUMPRODUCT(I8:I13,J8:J13)/SUM(I8:I13),"")</f>
         <v/>
@@ -2910,10 +2894,10 @@
         <f>IF(A18="YES",(D18/E18)*C18,"")</f>
         <v>0</v>
       </c>
-      <c r="H18" s="176" t="s">
+      <c r="H18" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="177"/>
+      <c r="I18" s="160"/>
       <c r="J18" s="132">
         <f>SUMPRODUCT(J3:J13,I3:I13)/SUM(I3:I13)</f>
         <v>0.01</v>
@@ -2970,14 +2954,14 @@
         <f>IF(A20="YES",(D20/E20)*C20,"")</f>
         <v>0</v>
       </c>
-      <c r="H20" s="139" t="s">
+      <c r="H20" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="141"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="145"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H21" s="91" t="s">
@@ -3000,14 +2984,14 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="144"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="145"/>
       <c r="H22" s="95" t="s">
         <v>153</v>
       </c>
@@ -3055,7 +3039,7 @@
         <v>35</v>
       </c>
       <c r="J23" s="104" t="str">
-        <f t="shared" ref="J23:J26" si="4">IF(H23="YES",5%,"")</f>
+        <f t="shared" ref="J23:J26" si="5">IF(H23="YES",5%,"")</f>
         <v/>
       </c>
       <c r="K23" s="97">
@@ -3065,7 +3049,7 @@
         <v>10</v>
       </c>
       <c r="M23" s="98" t="str">
-        <f t="shared" ref="M23:M26" si="5">IF(H23="YES",K23/L23,"")</f>
+        <f t="shared" ref="M23:M26" si="6">IF(H23="YES",K23/L23,"")</f>
         <v/>
       </c>
     </row>
@@ -3087,7 +3071,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="98">
-        <f t="shared" ref="F24" si="6">IF(A24="YES",D24/E24,"")</f>
+        <f t="shared" ref="F24" si="7">IF(A24="YES",D24/E24,"")</f>
         <v>0</v>
       </c>
       <c r="H24" s="95" t="s">
@@ -3097,7 +3081,7 @@
         <v>36</v>
       </c>
       <c r="J24" s="104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K24" s="97">
@@ -3107,7 +3091,7 @@
         <v>10</v>
       </c>
       <c r="M24" s="98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3129,7 +3113,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="98">
-        <f t="shared" ref="F25:F27" si="7">IF(A25="YES",D25/E25,"")</f>
+        <f t="shared" ref="F25:F27" si="8">IF(A25="YES",D25/E25,"")</f>
         <v>0</v>
       </c>
       <c r="H25" s="95" t="s">
@@ -3139,7 +3123,7 @@
         <v>161</v>
       </c>
       <c r="J25" s="104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K25" s="97">
@@ -3149,41 +3133,41 @@
         <v>20</v>
       </c>
       <c r="M25" s="98" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="104">
+        <f t="shared" ref="C26" si="9">IF(A26="YES",(20/3)%,"")</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D26" s="97">
+        <v>0</v>
+      </c>
+      <c r="E26" s="97">
+        <v>49</v>
+      </c>
+      <c r="F26" s="98">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" s="104" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="95" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="104">
-        <f t="shared" ref="C26" si="8">IF(A26="YES",(20/3)%,"")</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D26" s="97">
-        <v>0</v>
-      </c>
-      <c r="E26" s="97">
-        <v>49</v>
-      </c>
-      <c r="F26" s="98">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="I26" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="J26" s="104" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="K26" s="97">
         <v>0</v>
       </c>
@@ -3191,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="M26" s="98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3213,7 +3197,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H27" s="95" t="s">
@@ -3308,24 +3292,24 @@
       <c r="D30" s="110"/>
       <c r="E30" s="110"/>
       <c r="F30" s="110"/>
-      <c r="H30" s="139" t="s">
+      <c r="H30" s="143" t="s">
         <v>163</v>
       </c>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="140"/>
-      <c r="L30" s="140"/>
-      <c r="M30" s="141"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="145"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="142" t="s">
+      <c r="A31" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="143"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="144"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="145"/>
       <c r="H31" s="91" t="s">
         <v>13</v>
       </c>
@@ -3367,10 +3351,10 @@
       <c r="H32" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="I32" s="178" t="s">
+      <c r="I32" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="J32" s="179" t="str">
+      <c r="J32" s="140" t="str">
         <f>IF(H32="YES",5%,"")</f>
         <v/>
       </c>
@@ -3381,7 +3365,7 @@
         <v>20</v>
       </c>
       <c r="M32" s="116" t="str">
-        <f t="shared" ref="M32:M36" si="9">IF(H32="YES",K32/L32,"")</f>
+        <f t="shared" ref="M32:M36" si="10">IF(H32="YES",K32/L32,"")</f>
         <v/>
       </c>
     </row>
@@ -3403,17 +3387,17 @@
         <v>60</v>
       </c>
       <c r="F33" s="116">
-        <f t="shared" ref="F33" si="10">IF(A33="YES",D33/E33,"")</f>
+        <f t="shared" ref="F33" si="11">IF(A33="YES",D33/E33,"")</f>
         <v>0</v>
       </c>
       <c r="H33" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="I33" s="180" t="s">
+      <c r="I33" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="179" t="str">
-        <f t="shared" ref="J33:J35" si="11">IF(H33="YES",5%,"")</f>
+      <c r="J33" s="140" t="str">
+        <f t="shared" ref="J33:J35" si="12">IF(H33="YES",5%,"")</f>
         <v/>
       </c>
       <c r="K33" s="97">
@@ -3423,7 +3407,7 @@
         <v>20</v>
       </c>
       <c r="M33" s="98" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3445,17 +3429,17 @@
         <v>20</v>
       </c>
       <c r="F34" s="98">
-        <f t="shared" ref="F34:F37" si="12">IF(A34="YES",D34/E34,"")</f>
+        <f t="shared" ref="F34:F37" si="13">IF(A34="YES",D34/E34,"")</f>
         <v>0</v>
       </c>
       <c r="H34" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="I34" s="180" t="s">
+      <c r="I34" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="179" t="str">
-        <f t="shared" si="11"/>
+      <c r="J34" s="140" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K34" s="97">
@@ -3465,7 +3449,7 @@
         <v>20</v>
       </c>
       <c r="M34" s="98" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3487,17 +3471,17 @@
         <v>10</v>
       </c>
       <c r="F35" s="98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H35" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="I35" s="180" t="s">
+      <c r="I35" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="J35" s="179" t="str">
-        <f t="shared" si="11"/>
+      <c r="J35" s="140" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K35" s="97">
@@ -3507,7 +3491,7 @@
         <v>20</v>
       </c>
       <c r="M35" s="98" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3529,16 +3513,16 @@
         <v>30</v>
       </c>
       <c r="F36" s="98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H36" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="I36" s="180" t="s">
+      <c r="I36" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="J36" s="179" t="str">
+      <c r="J36" s="140" t="str">
         <f>IF(H36="YES",30%,"")</f>
         <v/>
       </c>
@@ -3549,7 +3533,7 @@
         <v>100</v>
       </c>
       <c r="M36" s="98" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -3571,7 +3555,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H37" s="105" t="s">
@@ -3580,7 +3564,7 @@
       <c r="I37" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="J37" s="181" t="str">
+      <c r="J37" s="142" t="str">
         <f>IF(H37="YES",50%,"")</f>
         <v/>
       </c>
@@ -3613,7 +3597,7 @@
         <v>60</v>
       </c>
       <c r="F38" s="98">
-        <f t="shared" ref="F38" si="13">IF(A38="YES",D38/E38,"")</f>
+        <f t="shared" ref="F38" si="14">IF(A38="YES",D38/E38,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -3638,14 +3622,14 @@
         <f>IF(A39="YES",D39/E39,"")</f>
         <v>0</v>
       </c>
-      <c r="H39" s="139" t="s">
+      <c r="H39" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="I39" s="140"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="140"/>
-      <c r="L39" s="140"/>
-      <c r="M39" s="141"/>
+      <c r="I39" s="144"/>
+      <c r="J39" s="144"/>
+      <c r="K39" s="144"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="145"/>
     </row>
     <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="105" t="s">
@@ -3694,7 +3678,7 @@
       <c r="I41" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="J41" s="179" t="str">
+      <c r="J41" s="140" t="str">
         <f>IF(H41="YES",10%,"")</f>
         <v/>
       </c>
@@ -3705,26 +3689,26 @@
         <v>20</v>
       </c>
       <c r="M41" s="116" t="str">
-        <f t="shared" ref="M41:M48" si="14">IF(H41="YES",K41/L41,"")</f>
+        <f t="shared" ref="M41:M48" si="15">IF(H41="YES",K41/L41,"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="142" t="s">
+      <c r="A42" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="144"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="145"/>
       <c r="H42" s="95" t="s">
         <v>153</v>
       </c>
       <c r="I42" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="J42" s="179" t="str">
+      <c r="J42" s="140" t="str">
         <f>IF(H42="YES",10%,"")</f>
         <v/>
       </c>
@@ -3735,7 +3719,7 @@
         <v>20</v>
       </c>
       <c r="M42" s="98" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -3764,7 +3748,7 @@
       <c r="I43" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="J43" s="179" t="str">
+      <c r="J43" s="140" t="str">
         <f>IF(H43="YES",10%,"")</f>
         <v/>
       </c>
@@ -3775,7 +3759,7 @@
         <v>20</v>
       </c>
       <c r="M43" s="98" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -3797,7 +3781,7 @@
         <v>100</v>
       </c>
       <c r="F44" s="116">
-        <f t="shared" ref="F44:F45" si="15">IF(A44="YES",D44/E44,"")</f>
+        <f t="shared" ref="F44:F45" si="16">IF(A44="YES",D44/E44,"")</f>
         <v>0</v>
       </c>
       <c r="H44" s="95" t="s">
@@ -3806,7 +3790,7 @@
       <c r="I44" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="179" t="str">
+      <c r="J44" s="140" t="str">
         <f>IF(H44="YES",4%,"")</f>
         <v/>
       </c>
@@ -3817,7 +3801,7 @@
         <v>10</v>
       </c>
       <c r="M44" s="98" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -3839,7 +3823,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H45" s="95" t="s">
@@ -3848,8 +3832,8 @@
       <c r="I45" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="179" t="str">
-        <f t="shared" ref="J45:J48" si="16">IF(H45="YES",4%,"")</f>
+      <c r="J45" s="140" t="str">
+        <f t="shared" ref="J45:J48" si="17">IF(H45="YES",4%,"")</f>
         <v/>
       </c>
       <c r="K45" s="97">
@@ -3859,7 +3843,7 @@
         <v>10</v>
       </c>
       <c r="M45" s="98" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -3881,7 +3865,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="98">
-        <f t="shared" ref="F46:F49" si="17">IF(A46="YES",D46/E46,"")</f>
+        <f t="shared" ref="F46:F49" si="18">IF(A46="YES",D46/E46,"")</f>
         <v>0</v>
       </c>
       <c r="H46" s="95" t="s">
@@ -3890,8 +3874,8 @@
       <c r="I46" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="J46" s="179" t="str">
-        <f t="shared" si="16"/>
+      <c r="J46" s="140" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K46" s="97">
@@ -3901,7 +3885,7 @@
         <v>10</v>
       </c>
       <c r="M46" s="98" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -3913,7 +3897,7 @@
         <v>35</v>
       </c>
       <c r="C47" s="104">
-        <f t="shared" ref="C47:C49" si="18">IF(A47="YES",(15/4)%,"")</f>
+        <f t="shared" ref="C47:C49" si="19">IF(A47="YES",(15/4)%,"")</f>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="D47" s="97">
@@ -3923,7 +3907,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H47" s="95" t="s">
@@ -3932,8 +3916,8 @@
       <c r="I47" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="J47" s="179" t="str">
-        <f t="shared" si="16"/>
+      <c r="J47" s="140" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K47" s="97">
@@ -3943,7 +3927,7 @@
         <v>10</v>
       </c>
       <c r="M47" s="98" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -3955,7 +3939,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="D48" s="97">
@@ -3965,7 +3949,7 @@
         <v>10</v>
       </c>
       <c r="F48" s="98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H48" s="95" t="s">
@@ -3974,8 +3958,8 @@
       <c r="I48" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="J48" s="179" t="str">
-        <f t="shared" si="16"/>
+      <c r="J48" s="140" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K48" s="97">
@@ -3985,7 +3969,7 @@
         <v>10</v>
       </c>
       <c r="M48" s="98" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -3997,7 +3981,7 @@
         <v>37</v>
       </c>
       <c r="C49" s="104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="D49" s="97">
@@ -4007,7 +3991,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H49" s="105" t="s">
@@ -4016,7 +4000,7 @@
       <c r="I49" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="J49" s="181" t="str">
+      <c r="J49" s="142" t="str">
         <f>IF(H49="YES",50%,"")</f>
         <v/>
       </c>
@@ -4074,14 +4058,14 @@
         <f>IF(A51="YES",D51/E51,"")</f>
         <v>0</v>
       </c>
-      <c r="H51" s="139" t="s">
+      <c r="H51" s="143" t="s">
         <v>168</v>
       </c>
-      <c r="I51" s="140"/>
-      <c r="J51" s="140"/>
-      <c r="K51" s="140"/>
-      <c r="L51" s="140"/>
-      <c r="M51" s="141"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="144"/>
+      <c r="K51" s="144"/>
+      <c r="L51" s="144"/>
+      <c r="M51" s="145"/>
     </row>
     <row r="52" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="110"/>
@@ -4120,7 +4104,7 @@
       <c r="I53" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="J53" s="179" t="str">
+      <c r="J53" s="140" t="str">
         <f>IF(H53="YES",10%,"")</f>
         <v/>
       </c>
@@ -4131,7 +4115,7 @@
         <v>100</v>
       </c>
       <c r="M53" s="116" t="str">
-        <f t="shared" ref="M53:M58" si="19">IF(H53="YES",K53/L53,"")</f>
+        <f t="shared" ref="M53:M58" si="20">IF(H53="YES",K53/L53,"")</f>
         <v/>
       </c>
     </row>
@@ -4142,7 +4126,7 @@
       <c r="I54" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="J54" s="179" t="str">
+      <c r="J54" s="140" t="str">
         <f>IF(H54="YES",15%,"")</f>
         <v/>
       </c>
@@ -4153,7 +4137,7 @@
         <v>100</v>
       </c>
       <c r="M54" s="98" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4164,7 +4148,7 @@
       <c r="I55" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="J55" s="179" t="str">
+      <c r="J55" s="140" t="str">
         <f>IF(H55="YES",25%,"")</f>
         <v/>
       </c>
@@ -4175,7 +4159,7 @@
         <v>100</v>
       </c>
       <c r="M55" s="98" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4186,7 +4170,7 @@
       <c r="I56" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="J56" s="179" t="str">
+      <c r="J56" s="140" t="str">
         <f>IF(H56="YES",25%,"")</f>
         <v/>
       </c>
@@ -4197,7 +4181,7 @@
         <v>100</v>
       </c>
       <c r="M56" s="98" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4208,7 +4192,7 @@
       <c r="I57" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="J57" s="179" t="str">
+      <c r="J57" s="140" t="str">
         <f>IF(H57="YES",10%,"")</f>
         <v/>
       </c>
@@ -4219,7 +4203,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="98" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4230,7 +4214,7 @@
       <c r="I58" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="J58" s="179" t="str">
+      <c r="J58" s="140" t="str">
         <f>IF(H58="YES",10%,"")</f>
         <v/>
       </c>
@@ -4241,7 +4225,7 @@
         <v>100</v>
       </c>
       <c r="M58" s="98" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -4252,7 +4236,7 @@
       <c r="I59" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="J59" s="181" t="str">
+      <c r="J59" s="142" t="str">
         <f>IF(H59="YES",5%,"")</f>
         <v/>
       </c>
@@ -4269,14 +4253,14 @@
     </row>
     <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H61" s="139" t="s">
+      <c r="H61" s="143" t="s">
         <v>175</v>
       </c>
-      <c r="I61" s="140"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="140"/>
-      <c r="L61" s="140"/>
-      <c r="M61" s="141"/>
+      <c r="I61" s="144"/>
+      <c r="J61" s="144"/>
+      <c r="K61" s="144"/>
+      <c r="L61" s="144"/>
+      <c r="M61" s="145"/>
     </row>
     <row r="62" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H62" s="91" t="s">
@@ -4328,7 +4312,7 @@
         <v>41</v>
       </c>
       <c r="J64" s="104" t="str">
-        <f t="shared" ref="J64:J68" si="20">IF(H64="YES",6%,"")</f>
+        <f t="shared" ref="J64:J67" si="21">IF(H64="YES",6%,"")</f>
         <v/>
       </c>
       <c r="K64" s="97">
@@ -4338,7 +4322,7 @@
         <v>20</v>
       </c>
       <c r="M64" s="98" t="str">
-        <f t="shared" ref="M64:M68" si="21">IF(H64="YES",K64/L64,"")</f>
+        <f t="shared" ref="M64:M68" si="22">IF(H64="YES",K64/L64,"")</f>
         <v/>
       </c>
     </row>
@@ -4350,7 +4334,7 @@
         <v>42</v>
       </c>
       <c r="J65" s="104" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K65" s="97">
@@ -4382,7 +4366,7 @@
         <v>20</v>
       </c>
       <c r="M66" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4394,7 +4378,7 @@
         <v>64</v>
       </c>
       <c r="J67" s="104" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K67" s="97">
@@ -4404,7 +4388,7 @@
         <v>20</v>
       </c>
       <c r="M67" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4426,7 +4410,7 @@
         <v>100</v>
       </c>
       <c r="M68" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -4454,14 +4438,14 @@
     </row>
     <row r="70" spans="8:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="8:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H71" s="139" t="s">
+      <c r="H71" s="143" t="s">
         <v>176</v>
       </c>
-      <c r="I71" s="140"/>
-      <c r="J71" s="140"/>
-      <c r="K71" s="140"/>
-      <c r="L71" s="140"/>
-      <c r="M71" s="141"/>
+      <c r="I71" s="144"/>
+      <c r="J71" s="144"/>
+      <c r="K71" s="144"/>
+      <c r="L71" s="144"/>
+      <c r="M71" s="145"/>
     </row>
     <row r="72" spans="8:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H72" s="91" t="s">
@@ -4513,7 +4497,7 @@
         <v>41</v>
       </c>
       <c r="J74" s="104" t="str">
-        <f t="shared" ref="J74:J76" si="22">IF(H74="YES",5%,"")</f>
+        <f t="shared" ref="J74:J76" si="23">IF(H74="YES",5%,"")</f>
         <v/>
       </c>
       <c r="K74" s="97">
@@ -4535,7 +4519,7 @@
         <v>42</v>
       </c>
       <c r="J75" s="104" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K75" s="97">
@@ -4545,7 +4529,7 @@
         <v>20</v>
       </c>
       <c r="M75" s="98" t="str">
-        <f t="shared" ref="M74:M77" si="23">IF(H75="YES",K75/L75,"")</f>
+        <f t="shared" ref="M75:M77" si="24">IF(H75="YES",K75/L75,"")</f>
         <v/>
       </c>
     </row>
@@ -4557,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="J76" s="104" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K76" s="97">
@@ -4567,7 +4551,7 @@
         <v>20</v>
       </c>
       <c r="M76" s="98" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -4589,7 +4573,7 @@
         <v>100</v>
       </c>
       <c r="M77" s="98" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -4653,7 +4637,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="H61:M61"/>
+    <mergeCell ref="H71:M71"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:K1"/>
@@ -4665,14 +4652,17 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H39:M39"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:L7">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>AND($L3=100%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:L13">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND($L8=100%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4710,21 +4700,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="H1" s="146" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="H1" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="149" t="s">
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="150" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4759,7 +4749,7 @@
       <c r="K2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="150"/>
+      <c r="L2" s="151"/>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
@@ -5280,8 +5270,8 @@
       <c r="D16" s="110"/>
       <c r="E16" s="110"/>
       <c r="F16" s="110"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="158"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="162"/>
       <c r="J16" s="34" t="s">
         <v>128</v>
       </c>
@@ -5290,18 +5280,18 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="144"/>
-      <c r="H17" s="161" t="s">
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="145"/>
+      <c r="H17" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="162"/>
+      <c r="I17" s="158"/>
       <c r="J17" s="40">
         <f>SUMPRODUCT(I3:I9,J3:J9)/SUM(I3:I9)</f>
         <v>7.1428571428571435E-3</v>
@@ -5330,10 +5320,10 @@
       <c r="F18" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="163" t="s">
+      <c r="H18" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="164"/>
+      <c r="I18" s="156"/>
       <c r="J18" s="39">
         <f>IFERROR(SUMPRODUCT(I10:I14,J10:J14)/SUM(I10:I14),"")</f>
         <v>0.02</v>
@@ -5364,10 +5354,10 @@
         <f t="shared" ref="F19:F21" si="7">IF(A19="YES",D19/E19,"")</f>
         <v>0</v>
       </c>
-      <c r="H19" s="159" t="s">
+      <c r="H19" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="160"/>
+      <c r="I19" s="164"/>
       <c r="J19" s="126">
         <f>SUM(J3:J14)/12</f>
         <v>1.2500000000000002E-2</v>
@@ -5420,14 +5410,14 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H21" s="146" t="s">
+      <c r="H21" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="149"/>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="110"/>
@@ -5456,21 +5446,21 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="142" t="s">
+      <c r="A23" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="144"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="145"/>
       <c r="H23" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="154"/>
+      <c r="J23" s="168"/>
       <c r="K23" s="13">
         <v>0</v>
       </c>
@@ -5507,7 +5497,7 @@
       <c r="I24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="155"/>
+      <c r="J24" s="169"/>
       <c r="K24" s="13">
         <v>0</v>
       </c>
@@ -5546,7 +5536,7 @@
       <c r="I25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="155"/>
+      <c r="J25" s="169"/>
       <c r="K25" s="13">
         <v>0</v>
       </c>
@@ -5585,7 +5575,7 @@
       <c r="I26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="155"/>
+      <c r="J26" s="169"/>
       <c r="K26" s="13">
         <v>0</v>
       </c>
@@ -5624,7 +5614,7 @@
       <c r="I27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="155"/>
+      <c r="J27" s="169"/>
       <c r="K27" s="13">
         <v>0</v>
       </c>
@@ -5663,7 +5653,7 @@
       <c r="I28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="156"/>
+      <c r="J28" s="170"/>
       <c r="K28" s="13">
         <v>0</v>
       </c>
@@ -5804,14 +5794,14 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H32" s="146" t="s">
+      <c r="H32" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="95" t="s">
@@ -6260,14 +6250,14 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="142" t="s">
+      <c r="A44" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="144"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="145"/>
       <c r="H44" s="15" t="s">
         <v>67</v>
       </c>
@@ -6333,14 +6323,14 @@
         <f t="shared" ref="F46:F50" si="15">IF(A46="YES",D46/E46,"")</f>
         <v>0</v>
       </c>
-      <c r="H46" s="146" t="s">
+      <c r="H46" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="I46" s="147"/>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="148"/>
+      <c r="I46" s="148"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="148"/>
+      <c r="L46" s="148"/>
+      <c r="M46" s="149"/>
     </row>
     <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="95" t="s">
@@ -6705,14 +6695,14 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H56" s="146" t="s">
+      <c r="H56" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="I56" s="147"/>
-      <c r="J56" s="147"/>
-      <c r="K56" s="147"/>
-      <c r="L56" s="147"/>
-      <c r="M56" s="148"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="148"/>
+      <c r="K56" s="148"/>
+      <c r="L56" s="148"/>
+      <c r="M56" s="149"/>
     </row>
     <row r="57" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="95" t="s">
@@ -6825,14 +6815,14 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="142" t="s">
+      <c r="A60" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="143"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="143"/>
-      <c r="E60" s="143"/>
-      <c r="F60" s="144"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="145"/>
       <c r="H60" s="10" t="s">
         <v>67</v>
       </c>
@@ -7049,14 +7039,14 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="142" t="s">
+      <c r="A66" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="143"/>
-      <c r="C66" s="143"/>
-      <c r="D66" s="143"/>
-      <c r="E66" s="143"/>
-      <c r="F66" s="144"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="144"/>
+      <c r="D66" s="144"/>
+      <c r="E66" s="144"/>
+      <c r="F66" s="145"/>
       <c r="H66" s="15" t="s">
         <v>67</v>
       </c>
@@ -7125,14 +7115,14 @@
         <f t="shared" ref="F68:F76" si="24">IF(A68="YES",D68/E68,"")</f>
         <v>0</v>
       </c>
-      <c r="H68" s="146" t="s">
+      <c r="H68" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="I68" s="147"/>
-      <c r="J68" s="147"/>
-      <c r="K68" s="147"/>
-      <c r="L68" s="147"/>
-      <c r="M68" s="148"/>
+      <c r="I68" s="148"/>
+      <c r="J68" s="148"/>
+      <c r="K68" s="148"/>
+      <c r="L68" s="148"/>
+      <c r="M68" s="149"/>
     </row>
     <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="95" t="s">
@@ -7491,14 +7481,14 @@
         <f>IF(A77="YES",D77/E77,"")</f>
         <v>0</v>
       </c>
-      <c r="H77" s="151" t="s">
+      <c r="H77" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="I77" s="152"/>
-      <c r="J77" s="152"/>
-      <c r="K77" s="152"/>
-      <c r="L77" s="152"/>
-      <c r="M77" s="153"/>
+      <c r="I77" s="153"/>
+      <c r="J77" s="153"/>
+      <c r="K77" s="153"/>
+      <c r="L77" s="153"/>
+      <c r="M77" s="154"/>
     </row>
     <row r="78" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="95" t="s">
@@ -7615,14 +7605,14 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="142" t="s">
+      <c r="A81" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="143"/>
-      <c r="C81" s="143"/>
-      <c r="D81" s="143"/>
-      <c r="E81" s="143"/>
-      <c r="F81" s="144"/>
+      <c r="B81" s="144"/>
+      <c r="C81" s="144"/>
+      <c r="D81" s="144"/>
+      <c r="E81" s="144"/>
+      <c r="F81" s="145"/>
       <c r="H81" s="15" t="s">
         <v>67</v>
       </c>
@@ -7783,15 +7773,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A81:F81"/>
@@ -7804,6 +7785,15 @@
     <mergeCell ref="H56:M56"/>
     <mergeCell ref="H68:M68"/>
     <mergeCell ref="H77:M77"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:L14">
     <cfRule type="expression" dxfId="12" priority="2">
@@ -7843,20 +7833,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
       <c r="G1" s="5"/>
       <c r="H1" s="172" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
       <c r="K1" s="173"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -8353,19 +8343,19 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="168"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="176" t="s">
+      <c r="H15" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="177"/>
+      <c r="I15" s="160"/>
       <c r="J15" s="125">
         <f>SUMPRODUCT(I3:I12,J3:J12)/SUM(I3:I12)</f>
         <v>0</v>
@@ -8838,14 +8828,14 @@
         <v>0</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="168" t="s">
+      <c r="H29" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="171"/>
+      <c r="M29" s="171"/>
     </row>
     <row r="30" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
@@ -8880,14 +8870,14 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
       <c r="G31" s="5"/>
       <c r="H31" s="10" t="s">
         <v>67</v>
@@ -9393,14 +9383,14 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="169" t="s">
+      <c r="A43" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="171"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
+      <c r="E43" s="177"/>
+      <c r="F43" s="178"/>
       <c r="G43" s="5"/>
       <c r="H43" s="10" t="s">
         <v>67</v>
@@ -9623,23 +9613,23 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="169" t="s">
+      <c r="A49" s="176" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
-      <c r="E49" s="170"/>
-      <c r="F49" s="171"/>
+      <c r="B49" s="177"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="177"/>
+      <c r="E49" s="177"/>
+      <c r="F49" s="178"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="168" t="s">
+      <c r="H49" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="I49" s="168"/>
-      <c r="J49" s="168"/>
-      <c r="K49" s="168"/>
-      <c r="L49" s="168"/>
-      <c r="M49" s="168"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="171"/>
+      <c r="K49" s="171"/>
+      <c r="L49" s="171"/>
+      <c r="M49" s="171"/>
     </row>
     <row r="50" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="63" t="s">
@@ -9812,14 +9802,14 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="169" t="s">
+      <c r="A54" s="176" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="171"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="178"/>
       <c r="G54" s="5"/>
       <c r="H54" s="10" t="s">
         <v>67</v>
@@ -10220,14 +10210,14 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="168" t="s">
+      <c r="A64" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="168"/>
-      <c r="C64" s="168"/>
-      <c r="D64" s="168"/>
-      <c r="E64" s="168"/>
-      <c r="F64" s="168"/>
+      <c r="B64" s="171"/>
+      <c r="C64" s="171"/>
+      <c r="D64" s="171"/>
+      <c r="E64" s="171"/>
+      <c r="F64" s="171"/>
       <c r="G64" s="5"/>
       <c r="H64" s="10" t="s">
         <v>67</v>
@@ -10479,23 +10469,23 @@
       <c r="M70" s="5"/>
     </row>
     <row r="71" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="168" t="s">
+      <c r="A71" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="B71" s="168"/>
-      <c r="C71" s="168"/>
-      <c r="D71" s="168"/>
-      <c r="E71" s="168"/>
-      <c r="F71" s="168"/>
+      <c r="B71" s="171"/>
+      <c r="C71" s="171"/>
+      <c r="D71" s="171"/>
+      <c r="E71" s="171"/>
+      <c r="F71" s="171"/>
       <c r="G71" s="5"/>
-      <c r="H71" s="168" t="s">
+      <c r="H71" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="I71" s="168"/>
-      <c r="J71" s="168"/>
-      <c r="K71" s="168"/>
-      <c r="L71" s="168"/>
-      <c r="M71" s="168"/>
+      <c r="I71" s="171"/>
+      <c r="J71" s="171"/>
+      <c r="K71" s="171"/>
+      <c r="L71" s="171"/>
+      <c r="M71" s="171"/>
     </row>
     <row r="72" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
@@ -10956,14 +10946,14 @@
       <c r="M85" s="5"/>
     </row>
     <row r="86" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="168" t="s">
+      <c r="A86" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="168"/>
-      <c r="C86" s="168"/>
-      <c r="D86" s="168"/>
-      <c r="E86" s="168"/>
-      <c r="F86" s="168"/>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="171"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
@@ -11160,14 +11150,14 @@
       <c r="M93" s="5"/>
     </row>
     <row r="94" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="168" t="s">
+      <c r="A94" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="168"/>
-      <c r="C94" s="168"/>
-      <c r="D94" s="168"/>
-      <c r="E94" s="168"/>
-      <c r="F94" s="168"/>
+      <c r="B94" s="171"/>
+      <c r="C94" s="171"/>
+      <c r="D94" s="171"/>
+      <c r="E94" s="171"/>
+      <c r="F94" s="171"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
@@ -11495,12 +11485,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="H15:I15"/>
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="H71:M71"/>
     <mergeCell ref="A86:F86"/>
@@ -11511,6 +11495,12 @@
     <mergeCell ref="H49:M49"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A64:F64"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <conditionalFormatting sqref="I18:I27">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">

--- a/3rd Year Software Engineering TEMPLATE.xlsx
+++ b/3rd Year Software Engineering TEMPLATE.xlsx
@@ -1692,6 +1692,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1713,18 +1722,18 @@
     <xf numFmtId="166" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1735,15 +1744,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2253,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="97">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M22" s="116" t="str">
         <f>IF(H22="YES",K22/L22,"")</f>
@@ -3036,7 +3036,7 @@
         <v>153</v>
       </c>
       <c r="I23" s="96" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J23" s="104" t="str">
         <f t="shared" ref="J23:J26" si="5">IF(H23="YES",5%,"")</f>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="97">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M23" s="98" t="str">
         <f t="shared" ref="M23:M26" si="6">IF(H23="YES",K23/L23,"")</f>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="97">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M24" s="98" t="str">
         <f t="shared" si="6"/>
@@ -4638,6 +4638,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H39:M39"/>
     <mergeCell ref="H51:M51"/>
     <mergeCell ref="H61:M61"/>
     <mergeCell ref="H71:M71"/>
@@ -4654,7 +4655,6 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H20:M20"/>
     <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H39:M39"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:L7">
     <cfRule type="expression" dxfId="14" priority="3">
@@ -4758,7 +4758,7 @@
       <c r="B3" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="165"/>
+      <c r="C3" s="168"/>
       <c r="D3" s="97">
         <v>0</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="B4" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="166"/>
+      <c r="C4" s="169"/>
       <c r="D4" s="97">
         <v>0</v>
       </c>
@@ -4836,7 +4836,7 @@
       <c r="B5" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="166"/>
+      <c r="C5" s="169"/>
       <c r="D5" s="97">
         <v>0</v>
       </c>
@@ -4875,7 +4875,7 @@
       <c r="B6" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="166"/>
+      <c r="C6" s="169"/>
       <c r="D6" s="97">
         <v>0</v>
       </c>
@@ -4914,7 +4914,7 @@
       <c r="B7" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="167"/>
+      <c r="C7" s="170"/>
       <c r="D7" s="97">
         <v>0</v>
       </c>
@@ -5270,8 +5270,8 @@
       <c r="D16" s="110"/>
       <c r="E16" s="110"/>
       <c r="F16" s="110"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="162"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="165"/>
       <c r="J16" s="34" t="s">
         <v>128</v>
       </c>
@@ -5354,10 +5354,10 @@
         <f t="shared" ref="F19:F21" si="7">IF(A19="YES",D19/E19,"")</f>
         <v>0</v>
       </c>
-      <c r="H19" s="163" t="s">
+      <c r="H19" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="164"/>
+      <c r="I19" s="167"/>
       <c r="J19" s="126">
         <f>SUM(J3:J14)/12</f>
         <v>1.2500000000000002E-2</v>
@@ -5460,7 +5460,7 @@
       <c r="I23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="168"/>
+      <c r="J23" s="161"/>
       <c r="K23" s="13">
         <v>0</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="I24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="169"/>
+      <c r="J24" s="162"/>
       <c r="K24" s="13">
         <v>0</v>
       </c>
@@ -5536,7 +5536,7 @@
       <c r="I25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="169"/>
+      <c r="J25" s="162"/>
       <c r="K25" s="13">
         <v>0</v>
       </c>
@@ -5575,7 +5575,7 @@
       <c r="I26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="169"/>
+      <c r="J26" s="162"/>
       <c r="K26" s="13">
         <v>0</v>
       </c>
@@ -5614,7 +5614,7 @@
       <c r="I27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="169"/>
+      <c r="J27" s="162"/>
       <c r="K27" s="13">
         <v>0</v>
       </c>
@@ -5653,7 +5653,7 @@
       <c r="I28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="170"/>
+      <c r="J28" s="163"/>
       <c r="K28" s="13">
         <v>0</v>
       </c>
@@ -7773,6 +7773,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A81:F81"/>
@@ -7785,15 +7794,6 @@
     <mergeCell ref="H56:M56"/>
     <mergeCell ref="H68:M68"/>
     <mergeCell ref="H77:M77"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:L14">
     <cfRule type="expression" dxfId="12" priority="2">
@@ -7842,12 +7842,12 @@
       <c r="E1" s="171"/>
       <c r="F1" s="171"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="172" t="s">
+      <c r="H1" s="175" t="s">
         <v>56</v>
       </c>
       <c r="I1" s="171"/>
       <c r="J1" s="171"/>
-      <c r="K1" s="173"/>
+      <c r="K1" s="176"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
@@ -8331,8 +8331,8 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="175"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="178"/>
       <c r="J14" s="34" t="s">
         <v>58</v>
       </c>
@@ -9383,14 +9383,14 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="176" t="s">
+      <c r="A43" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
-      <c r="E43" s="177"/>
-      <c r="F43" s="178"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="174"/>
       <c r="G43" s="5"/>
       <c r="H43" s="10" t="s">
         <v>67</v>
@@ -9613,14 +9613,14 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="176" t="s">
+      <c r="A49" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="177"/>
-      <c r="C49" s="177"/>
-      <c r="D49" s="177"/>
-      <c r="E49" s="177"/>
-      <c r="F49" s="178"/>
+      <c r="B49" s="173"/>
+      <c r="C49" s="173"/>
+      <c r="D49" s="173"/>
+      <c r="E49" s="173"/>
+      <c r="F49" s="174"/>
       <c r="G49" s="5"/>
       <c r="H49" s="171" t="s">
         <v>102</v>
@@ -9802,14 +9802,14 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="176" t="s">
+      <c r="A54" s="172" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="177"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="177"/>
-      <c r="E54" s="177"/>
-      <c r="F54" s="178"/>
+      <c r="B54" s="173"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="173"/>
+      <c r="E54" s="173"/>
+      <c r="F54" s="174"/>
       <c r="G54" s="5"/>
       <c r="H54" s="10" t="s">
         <v>67</v>
@@ -11485,6 +11485,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="H71:M71"/>
     <mergeCell ref="A86:F86"/>
@@ -11495,12 +11501,6 @@
     <mergeCell ref="H49:M49"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A64:F64"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <conditionalFormatting sqref="I18:I27">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">

--- a/3rd Year Software Engineering TEMPLATE.xlsx
+++ b/3rd Year Software Engineering TEMPLATE.xlsx
@@ -1692,6 +1692,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1701,30 +1722,21 @@
     <xf numFmtId="166" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1732,18 +1744,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2254,7 +2254,7 @@
   <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,7 +3036,7 @@
         <v>153</v>
       </c>
       <c r="I23" s="96" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J23" s="104" t="str">
         <f t="shared" ref="J23:J26" si="5">IF(H23="YES",5%,"")</f>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="97">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M23" s="98" t="str">
         <f t="shared" ref="M23:M26" si="6">IF(H23="YES",K23/L23,"")</f>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="97">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M25" s="98" t="str">
         <f t="shared" si="6"/>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="97">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M26" s="98" t="str">
         <f t="shared" si="6"/>
@@ -4638,16 +4638,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="H61:M61"/>
-    <mergeCell ref="H71:M71"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="H17:I17"/>
@@ -4655,6 +4645,16 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H20:M20"/>
     <mergeCell ref="H30:M30"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="H61:M61"/>
+    <mergeCell ref="H71:M71"/>
+    <mergeCell ref="A42:F42"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:L7">
     <cfRule type="expression" dxfId="14" priority="3">
@@ -4758,7 +4758,7 @@
       <c r="B3" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="168"/>
+      <c r="C3" s="165"/>
       <c r="D3" s="97">
         <v>0</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="B4" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="169"/>
+      <c r="C4" s="166"/>
       <c r="D4" s="97">
         <v>0</v>
       </c>
@@ -4836,7 +4836,7 @@
       <c r="B5" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="169"/>
+      <c r="C5" s="166"/>
       <c r="D5" s="97">
         <v>0</v>
       </c>
@@ -4875,7 +4875,7 @@
       <c r="B6" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="169"/>
+      <c r="C6" s="166"/>
       <c r="D6" s="97">
         <v>0</v>
       </c>
@@ -4914,7 +4914,7 @@
       <c r="B7" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="170"/>
+      <c r="C7" s="167"/>
       <c r="D7" s="97">
         <v>0</v>
       </c>
@@ -5270,8 +5270,8 @@
       <c r="D16" s="110"/>
       <c r="E16" s="110"/>
       <c r="F16" s="110"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="165"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="162"/>
       <c r="J16" s="34" t="s">
         <v>128</v>
       </c>
@@ -5354,10 +5354,10 @@
         <f t="shared" ref="F19:F21" si="7">IF(A19="YES",D19/E19,"")</f>
         <v>0</v>
       </c>
-      <c r="H19" s="166" t="s">
+      <c r="H19" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="167"/>
+      <c r="I19" s="164"/>
       <c r="J19" s="126">
         <f>SUM(J3:J14)/12</f>
         <v>1.2500000000000002E-2</v>
@@ -5460,7 +5460,7 @@
       <c r="I23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="161"/>
+      <c r="J23" s="168"/>
       <c r="K23" s="13">
         <v>0</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="I24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="162"/>
+      <c r="J24" s="169"/>
       <c r="K24" s="13">
         <v>0</v>
       </c>
@@ -5536,7 +5536,7 @@
       <c r="I25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="162"/>
+      <c r="J25" s="169"/>
       <c r="K25" s="13">
         <v>0</v>
       </c>
@@ -5575,7 +5575,7 @@
       <c r="I26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="162"/>
+      <c r="J26" s="169"/>
       <c r="K26" s="13">
         <v>0</v>
       </c>
@@ -5614,7 +5614,7 @@
       <c r="I27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="162"/>
+      <c r="J27" s="169"/>
       <c r="K27" s="13">
         <v>0</v>
       </c>
@@ -5653,7 +5653,7 @@
       <c r="I28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="163"/>
+      <c r="J28" s="170"/>
       <c r="K28" s="13">
         <v>0</v>
       </c>
@@ -7773,15 +7773,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A81:F81"/>
@@ -7794,6 +7785,15 @@
     <mergeCell ref="H56:M56"/>
     <mergeCell ref="H68:M68"/>
     <mergeCell ref="H77:M77"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:L14">
     <cfRule type="expression" dxfId="12" priority="2">
@@ -7842,12 +7842,12 @@
       <c r="E1" s="171"/>
       <c r="F1" s="171"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="175" t="s">
+      <c r="H1" s="172" t="s">
         <v>56</v>
       </c>
       <c r="I1" s="171"/>
       <c r="J1" s="171"/>
-      <c r="K1" s="176"/>
+      <c r="K1" s="173"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
@@ -8331,8 +8331,8 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="178"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="175"/>
       <c r="J14" s="34" t="s">
         <v>58</v>
       </c>
@@ -9383,14 +9383,14 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="173"/>
-      <c r="C43" s="173"/>
-      <c r="D43" s="173"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="174"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
+      <c r="E43" s="177"/>
+      <c r="F43" s="178"/>
       <c r="G43" s="5"/>
       <c r="H43" s="10" t="s">
         <v>67</v>
@@ -9613,14 +9613,14 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="172" t="s">
+      <c r="A49" s="176" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="173"/>
-      <c r="C49" s="173"/>
-      <c r="D49" s="173"/>
-      <c r="E49" s="173"/>
-      <c r="F49" s="174"/>
+      <c r="B49" s="177"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="177"/>
+      <c r="E49" s="177"/>
+      <c r="F49" s="178"/>
       <c r="G49" s="5"/>
       <c r="H49" s="171" t="s">
         <v>102</v>
@@ -9802,14 +9802,14 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="172" t="s">
+      <c r="A54" s="176" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="173"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="173"/>
-      <c r="F54" s="174"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="178"/>
       <c r="G54" s="5"/>
       <c r="H54" s="10" t="s">
         <v>67</v>
@@ -11485,12 +11485,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="H15:I15"/>
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="H71:M71"/>
     <mergeCell ref="A86:F86"/>
@@ -11501,6 +11495,12 @@
     <mergeCell ref="H49:M49"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A64:F64"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <conditionalFormatting sqref="I18:I27">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
